--- a/tuvung.xlsx
+++ b/tuvung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="6480" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5630,8 +5630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D708"/>
   <sheetViews>
-    <sheetView topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="C672" sqref="C672:C705"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -13381,8 +13381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:G665"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="X27" workbookViewId="0">
+      <selection activeCell="AM44" sqref="AM44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
